--- a/bases/dicionario.xlsx
+++ b/bases/dicionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\projetos_github\PAINEL-NEOPLASIAS\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E8EB07-81AF-4BF6-BC0C-D70E22ACD6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F0242B-D8C9-445B-86F2-9A82A160C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classe" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="259">
   <si>
     <t>INT</t>
   </si>
@@ -766,13 +766,58 @@
   </si>
   <si>
     <t>outroant</t>
+  </si>
+  <si>
+    <t>categoria_variavel</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>diagnostico</t>
+  </si>
+  <si>
+    <t>classificacao TNM</t>
+  </si>
+  <si>
+    <t>metástase</t>
+  </si>
+  <si>
+    <t>informação tempo</t>
+  </si>
+  <si>
+    <t>comparacao consulta, diag e tratamento</t>
+  </si>
+  <si>
+    <t>Recidiva</t>
+  </si>
+  <si>
+    <t>habilitação</t>
+  </si>
+  <si>
+    <t>morfologia</t>
+  </si>
+  <si>
+    <t>não faço ideia</t>
+  </si>
+  <si>
+    <t>tumor infantil</t>
+  </si>
+  <si>
+    <t>estado clinico</t>
+  </si>
+  <si>
+    <t>topografia</t>
+  </si>
+  <si>
+    <t>tumor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -810,6 +855,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF001D35"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -831,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -844,6 +907,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,15 +1128,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>239</v>
       </c>
@@ -1080,8 +1149,11 @@
       <c r="C1" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
@@ -1091,8 +1163,11 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1102,8 +1177,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1113,8 +1191,11 @@
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1124,8 +1205,11 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1135,8 +1219,11 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1146,8 +1233,11 @@
       <c r="C7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -1157,74 +1247,95 @@
       <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="D8" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="8">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="8">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1234,8 +1345,14 @@
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -1245,8 +1362,14 @@
       <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -1256,8 +1379,14 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1267,8 +1396,14 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>52</v>
       </c>
@@ -1278,9 +1413,15 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="D19" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1289,8 +1430,14 @@
       <c r="C20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -1300,8 +1447,14 @@
       <c r="C21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>55</v>
       </c>
@@ -1311,8 +1464,11 @@
       <c r="C22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -1322,8 +1478,11 @@
       <c r="C23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -1333,8 +1492,11 @@
       <c r="C24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
@@ -1344,8 +1506,11 @@
       <c r="C25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -1355,8 +1520,11 @@
       <c r="C26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D26" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1366,8 +1534,11 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D27" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>61</v>
       </c>
@@ -1377,8 +1548,11 @@
       <c r="C28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D28" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>62</v>
       </c>
@@ -1388,8 +1562,11 @@
       <c r="C29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D29" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>63</v>
       </c>
@@ -1399,8 +1576,11 @@
       <c r="C30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D30" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1410,8 +1590,11 @@
       <c r="C31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D31" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1421,8 +1604,11 @@
       <c r="C32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D32" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>66</v>
       </c>
@@ -1432,8 +1618,11 @@
       <c r="C33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D33" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -1443,8 +1632,11 @@
       <c r="C34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D34" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -1454,8 +1646,14 @@
       <c r="C35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D35" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
@@ -1465,8 +1663,14 @@
       <c r="C36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D36" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1476,8 +1680,14 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D37" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>71</v>
       </c>
@@ -1487,8 +1697,14 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D38" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>72</v>
       </c>
@@ -1498,8 +1714,11 @@
       <c r="C39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D39" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -1509,8 +1728,11 @@
       <c r="C40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D40" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -1520,8 +1742,11 @@
       <c r="C41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D41" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -1531,8 +1756,11 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D42" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>76</v>
       </c>
@@ -1542,8 +1770,11 @@
       <c r="C43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D43" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>77</v>
       </c>
@@ -1553,8 +1784,11 @@
       <c r="C44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D44" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>78</v>
       </c>
@@ -1564,8 +1798,11 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D45" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>79</v>
       </c>
@@ -1575,8 +1812,11 @@
       <c r="C46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D46" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>80</v>
       </c>
@@ -1586,8 +1826,11 @@
       <c r="C47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>81</v>
       </c>
@@ -1597,8 +1840,11 @@
       <c r="C48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D48" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>82</v>
       </c>
@@ -1608,8 +1854,11 @@
       <c r="C49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D49" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>83</v>
       </c>
@@ -1619,8 +1868,11 @@
       <c r="C50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D50" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>84</v>
       </c>
@@ -1630,8 +1882,11 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D51" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>85</v>
       </c>
@@ -1641,8 +1896,11 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D52" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>86</v>
       </c>
@@ -1652,8 +1910,11 @@
       <c r="C53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D53" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
@@ -1663,8 +1924,11 @@
       <c r="C54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D54" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>88</v>
       </c>
@@ -1674,8 +1938,11 @@
       <c r="C55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D55" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>89</v>
       </c>
@@ -1685,8 +1952,11 @@
       <c r="C56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D56" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>90</v>
       </c>
@@ -1696,8 +1966,11 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D57" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>91</v>
       </c>
@@ -1707,8 +1980,11 @@
       <c r="C58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D58" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>92</v>
       </c>
@@ -1718,8 +1994,11 @@
       <c r="C59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D59" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>243</v>
       </c>
@@ -1729,8 +2008,11 @@
       <c r="C60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D60" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -1740,8 +2022,11 @@
       <c r="C61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D61" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -1751,8 +2036,11 @@
       <c r="C62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D62" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -1762,8 +2050,11 @@
       <c r="C63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D63" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
@@ -1773,8 +2064,11 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D64" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
@@ -1784,8 +2078,11 @@
       <c r="C65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D65" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>98</v>
       </c>
@@ -1795,8 +2092,11 @@
       <c r="C66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D66" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
@@ -1806,8 +2106,11 @@
       <c r="C67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D67" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
         <v>242</v>
       </c>
@@ -1817,8 +2120,11 @@
       <c r="C68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D68" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>100</v>
       </c>
@@ -1828,8 +2134,11 @@
       <c r="C69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D69" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>101</v>
       </c>
@@ -1839,8 +2148,11 @@
       <c r="C70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D70" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>102</v>
       </c>
@@ -1850,8 +2162,11 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D71" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
@@ -1861,8 +2176,11 @@
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D72" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>104</v>
       </c>
@@ -1872,8 +2190,11 @@
       <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D73" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -1883,8 +2204,11 @@
       <c r="C74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D74" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>106</v>
       </c>
@@ -1894,8 +2218,14 @@
       <c r="C75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D75" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>107</v>
       </c>
@@ -1905,8 +2235,14 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D76" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>108</v>
       </c>
@@ -1916,8 +2252,14 @@
       <c r="C77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D77" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>109</v>
       </c>
@@ -1927,8 +2269,11 @@
       <c r="C78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D78" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>110</v>
       </c>
@@ -1938,8 +2283,11 @@
       <c r="C79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D79" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>111</v>
       </c>
@@ -1949,8 +2297,11 @@
       <c r="C80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D80" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>112</v>
       </c>
@@ -1960,8 +2311,11 @@
       <c r="C81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D81" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>113</v>
       </c>
@@ -1971,8 +2325,12 @@
       <c r="C82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D82" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>114</v>
       </c>
@@ -1982,8 +2340,11 @@
       <c r="C83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D83" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>115</v>
       </c>
@@ -1993,8 +2354,11 @@
       <c r="C84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D84" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>116</v>
       </c>
@@ -2004,8 +2368,11 @@
       <c r="C85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D85" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>117</v>
       </c>
@@ -2015,8 +2382,11 @@
       <c r="C86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D86" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>118</v>
       </c>
@@ -2026,8 +2396,11 @@
       <c r="C87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D87" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>119</v>
       </c>
@@ -2037,8 +2410,11 @@
       <c r="C88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D88" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>120</v>
       </c>
@@ -2048,8 +2424,11 @@
       <c r="C89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D89" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>121</v>
       </c>
@@ -2059,8 +2438,11 @@
       <c r="C90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D90" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>122</v>
       </c>
@@ -2070,8 +2452,11 @@
       <c r="C91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D91" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>123</v>
       </c>
@@ -2081,8 +2466,11 @@
       <c r="C92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D92" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>124</v>
       </c>
@@ -2092,8 +2480,11 @@
       <c r="C93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D93" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>125</v>
       </c>
@@ -2103,8 +2494,11 @@
       <c r="C94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D94" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>126</v>
       </c>
@@ -2114,8 +2508,11 @@
       <c r="C95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D95" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>127</v>
       </c>
@@ -2125,8 +2522,11 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D96" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>128</v>
       </c>
@@ -2136,8 +2536,11 @@
       <c r="C97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D97" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>129</v>
       </c>
@@ -2147,8 +2550,11 @@
       <c r="C98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D98" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>130</v>
       </c>
@@ -2158,8 +2564,11 @@
       <c r="C99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D99" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>131</v>
       </c>
@@ -2169,8 +2578,11 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D100" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>132</v>
       </c>
@@ -2180,8 +2592,11 @@
       <c r="C101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D101" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>133</v>
       </c>
@@ -2190,6 +2605,9 @@
       </c>
       <c r="C102">
         <v>0</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2204,7 +2622,7 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A194" sqref="A194"/>
     </sheetView>
   </sheetViews>

--- a/bases/dicionario.xlsx
+++ b/bases/dicionario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\projetos_github\PAINEL-NEOPLASIAS\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F0242B-D8C9-445B-86F2-9A82A160C38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2159A8-8E19-48A2-BF08-AF90845C6982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="classe" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="279">
   <si>
     <t>INT</t>
   </si>
@@ -811,13 +811,73 @@
   </si>
   <si>
     <t>tumor</t>
+  </si>
+  <si>
+    <t>C44</t>
+  </si>
+  <si>
+    <t>C37</t>
+  </si>
+  <si>
+    <t>C38</t>
+  </si>
+  <si>
+    <t>C39</t>
+  </si>
+  <si>
+    <t>C40</t>
+  </si>
+  <si>
+    <t>C41</t>
+  </si>
+  <si>
+    <t>C42</t>
+  </si>
+  <si>
+    <t>C47</t>
+  </si>
+  <si>
+    <t>C48</t>
+  </si>
+  <si>
+    <t>C49</t>
+  </si>
+  <si>
+    <t>C37 - Timo</t>
+  </si>
+  <si>
+    <t>C38 - Coração, mediastino e pleura</t>
+  </si>
+  <si>
+    <t>C39 - Outros órgãos respiratórios e intratorácicos</t>
+  </si>
+  <si>
+    <t>C40 - Ossos e cartilagens dos membros</t>
+  </si>
+  <si>
+    <t>C41 - Ossos e cartilagens de outras localizações</t>
+  </si>
+  <si>
+    <t>C42 - Órgãos hematopoéticos e linfáticos</t>
+  </si>
+  <si>
+    <t>C47 - Pele</t>
+  </si>
+  <si>
+    <t>C44 - Nervos periféricos</t>
+  </si>
+  <si>
+    <t>C48 - Retroperitônio e peritônio</t>
+  </si>
+  <si>
+    <t>C49 - Outros tecidos conjuntivos e moles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -873,6 +933,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -894,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,6 +985,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1130,7 +1209,7 @@
   </sheetPr>
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
@@ -2620,10 +2699,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A194" sqref="A194"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5727,91 +5806,152 @@
       <c r="E238" s="2"/>
     </row>
     <row r="239" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+      <c r="A239" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="240" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
-    </row>
-    <row r="241" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-    </row>
-    <row r="242" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
-    </row>
-    <row r="243" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
-    </row>
-    <row r="244" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
-    </row>
-    <row r="245" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-    </row>
-    <row r="246" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-    </row>
-    <row r="247" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A247" s="4"/>
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
-    </row>
-    <row r="248" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A248" s="4"/>
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
-    </row>
-    <row r="249" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F245" s="12"/>
+    </row>
+    <row r="246" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
     </row>
-    <row r="250" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
     </row>
-    <row r="251" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
     </row>
-    <row r="252" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
     </row>
-    <row r="253" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
     </row>
-    <row r="254" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
     </row>
-    <row r="255" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
     </row>
-    <row r="256" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>

--- a/bases/dicionario.xlsx
+++ b/bases/dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\projetos_github\PAINEL-NEOPLASIAS\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2159A8-8E19-48A2-BF08-AF90845C6982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B00F64-E2EC-4BB1-A95E-5CD6D19C853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2701,7 +2701,7 @@
   </sheetPr>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
       <selection activeCell="F245" sqref="F245"/>
     </sheetView>
   </sheetViews>

--- a/bases/dicionario.xlsx
+++ b/bases/dicionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitor\Documents\projetos_github\PAINEL-NEOPLASIAS\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B00F64-E2EC-4BB1-A95E-5CD6D19C853A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7665C56F-F8E1-4C34-8C7C-FCC3B5C675FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2699,10 +2699,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="F245" sqref="F245"/>
+      <selection activeCell="I239" sqref="I239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5623,7 +5623,7 @@
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
     </row>
-    <row r="225" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>130</v>
       </c>
@@ -5636,7 +5636,7 @@
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
     </row>
-    <row r="226" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>130</v>
       </c>
@@ -5649,7 +5649,7 @@
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
     </row>
-    <row r="227" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>130</v>
       </c>
@@ -5662,7 +5662,7 @@
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
     </row>
-    <row r="228" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>131</v>
       </c>
@@ -5675,7 +5675,7 @@
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
     </row>
-    <row r="229" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>131</v>
       </c>
@@ -5688,7 +5688,7 @@
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
     </row>
-    <row r="230" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>131</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
     </row>
-    <row r="231" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>131</v>
       </c>
@@ -5714,7 +5714,7 @@
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
     </row>
-    <row r="232" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>131</v>
       </c>
@@ -5727,7 +5727,7 @@
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
     </row>
-    <row r="233" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>131</v>
       </c>
@@ -5740,7 +5740,7 @@
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
     </row>
-    <row r="234" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>132</v>
       </c>
@@ -5753,7 +5753,7 @@
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
     </row>
-    <row r="235" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>132</v>
       </c>
@@ -5766,7 +5766,7 @@
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
     </row>
-    <row r="236" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>132</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
     </row>
-    <row r="237" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>132</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
     </row>
-    <row r="238" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>132</v>
       </c>
@@ -5805,7 +5805,7 @@
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
     </row>
-    <row r="239" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>49</v>
       </c>
@@ -5815,8 +5815,9 @@
       <c r="C239" s="4" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="I239" s="12"/>
+    </row>
+    <row r="240" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
         <v>49</v>
       </c>
